--- a/Documents/List of Purchase.xlsx
+++ b/Documents/List of Purchase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\85296\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F208B2D6-E856-4418-B23C-FC3ECE10CBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B6A037-E55A-4BBB-A5B0-79E663786543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15480" yWindow="-30" windowWidth="15600" windowHeight="23025" xr2:uid="{05DF7440-934B-4D9D-8E17-05E43EABC67E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{05DF7440-934B-4D9D-8E17-05E43EABC67E}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Mechan</t>
   </si>
@@ -77,17 +77,64 @@
   </si>
   <si>
     <t>18650 4cell bms module</t>
+  </si>
+  <si>
+    <t>puipui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.75.63f46c1cSMRgZK&amp;id=670320551279&amp;ns=1&amp;abbucket=13#detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASLONG PG16-050行星减速电机 微型直流马达 智能锁 电动牙刷12V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a220o.1000855.w4004-15686600035.7.1ae2f64902fGTW&amp;id=665631367082&amp;skuId=4789727204925</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.18.4367136ehOktAT&amp;id=19027438685&amp;ns=1&amp;abbucket=13#detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=566418069461&amp;ali_refid=a3_430620_1006:1151032306:N:H5waukvccbOG93BXXZykyA%3D%3D:3dbe3d683fee580cbab33fdf9ef00abb&amp;ali_trackid=1_3dbe3d683fee580cbab33fdf9ef00abb&amp;spm=a230r.1.14.6#detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skateborad wheel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6647磨砂粉色套装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -110,14 +157,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -432,21 +482,21 @@
   <dimension ref="B5:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
-    <col min="7" max="7" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="24.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -463,7 +513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -473,8 +523,30 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="2:8">
+      <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>1</v>
       </c>
@@ -485,7 +557,7 @@
         <v>18650</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -493,17 +565,34 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G7" r:id="rId1" location="detail" xr:uid="{D19484E2-8EC7-4B52-8914-0585EE70691F}"/>
+    <hyperlink ref="G6" r:id="rId2" location="detail" xr:uid="{809D6E16-EE10-44FE-9412-A92C4B6B2EDE}"/>
+    <hyperlink ref="G8" r:id="rId3" location="detail" xr:uid="{AA5454FB-6B28-46A1-A56D-DC227986329D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documents/List of Purchase.xlsx
+++ b/Documents/List of Purchase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\85296\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\puipui\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B6A037-E55A-4BBB-A5B0-79E663786543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC231F0-8EC6-4DC7-8E2B-DD1A4D4E27A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{05DF7440-934B-4D9D-8E17-05E43EABC67E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{05DF7440-934B-4D9D-8E17-05E43EABC67E}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Mechan</t>
   </si>
@@ -68,15 +68,6 @@
   </si>
   <si>
     <t>18650 *4</t>
-  </si>
-  <si>
-    <t>18650 4cell battery box</t>
-  </si>
-  <si>
-    <t>For 4 cells</t>
-  </si>
-  <si>
-    <t>18650 4cell bms module</t>
   </si>
   <si>
     <t>puipui</t>
@@ -108,24 +99,52 @@
   <si>
     <t>6647磨砂粉色套装</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.tb.cn/h.fGdOGuZ?tk=Bycq2OOpqZD「2串2S8.4V 锂电池升压充电模块 USB升压充电板 5V2A转8.4V 带保护」
+点击链接直接打开</t>
+  </si>
+  <si>
+    <t>【淘宝】https://m.tb.cn/h.fteuYD9?tk=gUpW2OOKZoc「nano V3.0 ATMEGA328P改进版无焊板MINI TYRE-C micro接口arduino」</t>
+  </si>
+  <si>
+    <t>Arduino MINI TypeC ATMEGA328P改进版无焊板MINI TYRE-C micro接口arduino」</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>18650 2cell bms module</t>
+  </si>
+  <si>
+    <t>LIST OF PURCHASE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -134,21 +153,51 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -156,20 +205,114 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -479,119 +622,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE24290-752B-4075-BAB9-4849F5102BF3}">
-  <dimension ref="B5:H17"/>
+  <dimension ref="B1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" customWidth="1"/>
-    <col min="5" max="5" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="24.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.625" customWidth="1"/>
+    <col min="4" max="4" width="25.875" customWidth="1"/>
+    <col min="5" max="5" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="7" max="7" width="24.25" customWidth="1"/>
+    <col min="8" max="8" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+    <row r="1" spans="2:11" ht="16.5" thickBot="1">
+      <c r="K1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" ht="27" thickBot="1">
+      <c r="B2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="K2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="23.25">
+      <c r="B3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="K3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>18650</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>18650</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
+      <c r="H15" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B3:H200 K3">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B274" xr:uid="{68F9CCC4-F0B7-4777-96CA-8E05292BC393}">
+      <formula1>$K$1:$K$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G7" r:id="rId1" location="detail" xr:uid="{D19484E2-8EC7-4B52-8914-0585EE70691F}"/>
-    <hyperlink ref="G6" r:id="rId2" location="detail" xr:uid="{809D6E16-EE10-44FE-9412-A92C4B6B2EDE}"/>
-    <hyperlink ref="G8" r:id="rId3" location="detail" xr:uid="{AA5454FB-6B28-46A1-A56D-DC227986329D}"/>
+    <hyperlink ref="G5" r:id="rId1" location="detail" xr:uid="{D19484E2-8EC7-4B52-8914-0585EE70691F}"/>
+    <hyperlink ref="G4" r:id="rId2" location="detail" xr:uid="{809D6E16-EE10-44FE-9412-A92C4B6B2EDE}"/>
+    <hyperlink ref="G6" r:id="rId3" location="detail" xr:uid="{AA5454FB-6B28-46A1-A56D-DC227986329D}"/>
+    <hyperlink ref="G8" r:id="rId4" xr:uid="{DB3527E8-99FF-4FB7-977F-C6CC8138A355}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/List of Purchase.xlsx
+++ b/Documents/List of Purchase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\puipui\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diu9Lun7MKMaxSai\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC231F0-8EC6-4DC7-8E2B-DD1A4D4E27A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17093D0-8F75-4322-B03D-C868ABE0C45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{05DF7440-934B-4D9D-8E17-05E43EABC67E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
   <si>
     <t>Mechan</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>Filling up PuiPui with soft texture</t>
-  </si>
-  <si>
-    <t>18650 *4</t>
   </si>
   <si>
     <t>puipui</t>
@@ -78,13 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ASLONG PG16-050行星减速电机 微型直流马达 智能锁 电动牙刷12V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?spm=a220o.1000855.w4004-15686600035.7.1ae2f64902fGTW&amp;id=665631367082&amp;skuId=4789727204925</t>
-  </si>
-  <si>
     <t>https://item.taobao.com/item.htm?spm=a230r.1.14.18.4367136ehOktAT&amp;id=19027438685&amp;ns=1&amp;abbucket=13#detail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,9 +95,6 @@
 点击链接直接打开</t>
   </si>
   <si>
-    <t>【淘宝】https://m.tb.cn/h.fteuYD9?tk=gUpW2OOKZoc「nano V3.0 ATMEGA328P改进版无焊板MINI TYRE-C micro接口arduino」</t>
-  </si>
-  <si>
     <t>Arduino MINI TypeC ATMEGA328P改进版无焊板MINI TYRE-C micro接口arduino」</t>
   </si>
   <si>
@@ -117,16 +104,110 @@
     <t>#</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>18650 2cell bms module</t>
   </si>
   <si>
     <t>LIST OF PURCHASE</t>
+  </si>
+  <si>
+    <t>https://m.tb.cn/h.fteuYD9?tk=gUpW2OOKZoc「nano V3.0 ATMEGA328P改进版无焊板MINI TYRE-C micro接口arduino」</t>
+  </si>
+  <si>
+    <t>feet</t>
+  </si>
+  <si>
+    <t>battery</t>
+  </si>
+  <si>
+    <t>battery management system</t>
+  </si>
+  <si>
+    <t>contorl board for puipui</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z0d.6639537.1997196601.4.3d385886vacmuf&amp;id=542852650023</t>
+  </si>
+  <si>
+    <t>外6mmx內4mmx1000mm[平亮 斜亮 斜啞]
+飛機種類：斜紋亮光</t>
+  </si>
+  <si>
+    <t>進口 高強度 3K 碳纖維管 外徑5MM-30MM 碳纖維管 碳管 碳纖管</t>
+  </si>
+  <si>
+    <t>WSD十字萬向節聯軸器 精密小型滾針軸承單雙節可伸縮不鏽鋼定制SP</t>
+  </si>
+  <si>
+    <t>01G單節 6*16*36</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.61.3ccd68bcF40Ra1&amp;id=14661402298&amp;ns=1&amp;abbucket=11#detail</t>
+  </si>
+  <si>
+    <t>for tramssion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transmission around the steering </t>
+  </si>
+  <si>
+    <t>厂家直销智能小车JGB37520减速电机编码器码盘马达轮固定架联轴器</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=621126458852</t>
+  </si>
+  <si>
+    <t>使用電壓：直流電壓 6V 2瓦
+齒輪比：1比150
+套裝屬性：單編碼電機（非套裝）</t>
+  </si>
+  <si>
+    <t>使用電壓：直流電壓 6V 2瓦
+齒輪比：1比50
+套裝屬性：單編碼電機（非套裝）</t>
+  </si>
+  <si>
+    <t>使用電壓：直流電壓 6V 2瓦
+齒輪比：1比90
+套裝屬性：單編碼電機（非套裝）</t>
+  </si>
+  <si>
+    <t>drive leg mechanism (0.3Nm)</t>
+  </si>
+  <si>
+    <t>drive leg mechanism (0.48Nm)</t>
+  </si>
+  <si>
+    <t>drive leg mechanism (0.86Nm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price </t>
+  </si>
+  <si>
+    <t>30*30*5厘米10片</t>
+  </si>
+  <si>
+    <t>20*30*1厘米10片</t>
+  </si>
+  <si>
+    <t>20*30*3厘米10片</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>cny</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.3.504d2787SE3nkw&amp;id=646935938663&amp;ns=1&amp;abbucket=11#detail</t>
+  </si>
+  <si>
+    <t>18650鋰電池大容量3.7V強光手電筒頭燈唱戲機小風扇4.2電池充電器</t>
+  </si>
+  <si>
+    <t>18650尖頭7400買2節送同款1節[【2000毫安】]</t>
+  </si>
+  <si>
+    <t>USB四槽充電器1個</t>
   </si>
 </sst>
 </file>
@@ -197,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -234,40 +315,23 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -275,29 +339,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -622,65 +708,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE24290-752B-4075-BAB9-4849F5102BF3}">
-  <dimension ref="B1:K15"/>
+  <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.625" customWidth="1"/>
-    <col min="4" max="4" width="25.875" customWidth="1"/>
-    <col min="5" max="5" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.5" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.25" customWidth="1"/>
     <col min="6" max="6" width="18.375" customWidth="1"/>
-    <col min="7" max="7" width="24.25" customWidth="1"/>
-    <col min="8" max="8" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="61.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="22.5" customWidth="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
+    <col min="10" max="10" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16.5" thickBot="1">
-      <c r="K1" s="3" t="s">
+    <row r="1" spans="2:11">
+      <c r="K1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="27" thickBot="1">
-      <c r="B2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-      <c r="K2" s="3" t="s">
+    <row r="2" spans="2:11" ht="26.25">
+      <c r="B2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="K2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="23.25">
-      <c r="B3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="I3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -691,188 +786,408 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="H4" s="1"/>
+      <c r="I4" s="1">
+        <v>32</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="1"/>
+      <c r="I5" s="1">
+        <v>13</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1">
         <v>25</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1">
-        <v>18650</v>
-      </c>
+      <c r="D7" s="8"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:11">
+      <c r="I7" s="1">
+        <v>144</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="47.25">
       <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1">
-        <v>2</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>19</v>
+      <c r="G8" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="2:11">
+      <c r="I8" s="1">
+        <v>80</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="31.5">
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="C9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F9" s="1">
         <v>2</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>20</v>
+      <c r="G9" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:11">
+      <c r="I9" s="1">
+        <v>43.2</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="47.25">
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>14</v>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="I10" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="31.5">
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="I11" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="63">
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="H12" s="1"/>
+      <c r="I12" s="1">
+        <v>60</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="I13" s="1">
+        <v>105</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="95.25" customHeight="1">
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="I14" s="1">
+        <v>39</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="95.25" customHeight="1">
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="H15" s="1"/>
+      <c r="I15" s="1">
+        <v>39</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="95.25" customHeight="1">
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1">
+        <v>39</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1">
+        <v>27.8</v>
+      </c>
+      <c r="J17" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B3:H200 K3">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="D4:D5 B3:K3 B6:H8 B10:H202 E9:H9 B9:C9">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:C5 E4:H5">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:J202 I6:I16">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:J4 I5 J5:J16">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B274" xr:uid="{68F9CCC4-F0B7-4777-96CA-8E05292BC393}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B276" xr:uid="{68F9CCC4-F0B7-4777-96CA-8E05292BC393}">
       <formula1>$K$1:$K$3</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1" location="detail" xr:uid="{D19484E2-8EC7-4B52-8914-0585EE70691F}"/>
-    <hyperlink ref="G4" r:id="rId2" location="detail" xr:uid="{809D6E16-EE10-44FE-9412-A92C4B6B2EDE}"/>
-    <hyperlink ref="G6" r:id="rId3" location="detail" xr:uid="{AA5454FB-6B28-46A1-A56D-DC227986329D}"/>
-    <hyperlink ref="G8" r:id="rId4" xr:uid="{DB3527E8-99FF-4FB7-977F-C6CC8138A355}"/>
+    <hyperlink ref="G7" r:id="rId1" location="detail" xr:uid="{D19484E2-8EC7-4B52-8914-0585EE70691F}"/>
+    <hyperlink ref="G6" r:id="rId2" location="detail" xr:uid="{809D6E16-EE10-44FE-9412-A92C4B6B2EDE}"/>
+    <hyperlink ref="G8" r:id="rId3" location="detail" xr:uid="{AA5454FB-6B28-46A1-A56D-DC227986329D}"/>
+    <hyperlink ref="G10" r:id="rId4" xr:uid="{DB3527E8-99FF-4FB7-977F-C6CC8138A355}"/>
+    <hyperlink ref="G4" r:id="rId5" location="detail" xr:uid="{BAFE68BB-764C-42EC-870D-D35455CBB77F}"/>
+    <hyperlink ref="G11" r:id="rId6" xr:uid="{ACA27F72-27BA-41EA-964F-EE94935D339A}"/>
+    <hyperlink ref="G14" r:id="rId7" xr:uid="{1719470A-B35E-4062-AB8D-4CBBF04BFA27}"/>
+    <hyperlink ref="G15" r:id="rId8" xr:uid="{EDC6A333-ADB9-447F-B65F-EE33186DE1E3}"/>
+    <hyperlink ref="G16" r:id="rId9" xr:uid="{B8A29AB0-6A1C-49FC-89C1-E76C535F9880}"/>
+    <hyperlink ref="G5" r:id="rId10" location="detail" xr:uid="{088EC149-FCD8-4109-A936-C9AD6CD33F03}"/>
+    <hyperlink ref="G9" r:id="rId11" location="detail" xr:uid="{9CE37409-805A-43A2-9603-CE8727270A2B}"/>
+    <hyperlink ref="G17" r:id="rId12" location="detail" xr:uid="{B5CDD848-86FD-47FA-82F0-212C1A0E5CDC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId13"/>
 </worksheet>
 </file>